--- a/hw/scanner/Index_TestCoverageRevB.xlsx
+++ b/hw/scanner/Index_TestCoverageRevB.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="176">
   <si>
     <t>Project:</t>
   </si>
@@ -427,18 +427,12 @@
     <t>To power up unit when USB cable is connected.</t>
   </si>
   <si>
-    <t>Cut ground connection and add wire link to U9.3, signal name: USB_nVBUS_GOOD</t>
-  </si>
-  <si>
     <t xml:space="preserve">Power down </t>
   </si>
   <si>
     <t>U3</t>
   </si>
   <si>
-    <t>Add 100k resistor to U8.6 and ground</t>
-  </si>
-  <si>
     <t>Regulator is not powered down fully and restarts.</t>
   </si>
   <si>
@@ -482,6 +476,75 @@
   </si>
   <si>
     <t>Add two schottky diodes, one to replace R77 and the other to sit in parallel with D15 (common cathode) but anode to R77 (processor side).</t>
+  </si>
+  <si>
+    <t>Require battery LEDs to illuminate orange to indicate ISP mode</t>
+  </si>
+  <si>
+    <t>Wire OR U5.5 to Q9 gates</t>
+  </si>
+  <si>
+    <t>Rotate C57 90 degrees and add wire link to U9.3, signal name: USB_nVBUS_GOOD</t>
+  </si>
+  <si>
+    <t>Add 100k resistor from Q1.4 to Q4.5(ground)</t>
+  </si>
+  <si>
+    <t>Build Std</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>03791P-001</t>
+  </si>
+  <si>
+    <t>03791P-002</t>
+  </si>
+  <si>
+    <t>03791P-003</t>
+  </si>
+  <si>
+    <t>03791P-004</t>
+  </si>
+  <si>
+    <t>03791P-005</t>
+  </si>
+  <si>
+    <t>03791P-006</t>
+  </si>
+  <si>
+    <t>03791P-007</t>
+  </si>
+  <si>
+    <t>03791P-008</t>
+  </si>
+  <si>
+    <t>03791P-009</t>
+  </si>
+  <si>
+    <t>03791P-010</t>
+  </si>
+  <si>
+    <t>Mods 1-3</t>
+  </si>
+  <si>
+    <t>Mods 1-3, plus serial debug port</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>Simprints</t>
+  </si>
+  <si>
+    <t>Mods 1-2, plus serial debut port</t>
+  </si>
+  <si>
+    <t>Mods 1-4, plus serial debug port</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1050,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -1040,7 +1103,7 @@
         <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G10" t="s">
         <v>21</v>
@@ -1391,7 +1454,7 @@
         <v>65</v>
       </c>
       <c r="K22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1417,7 +1480,7 @@
         <v>66</v>
       </c>
       <c r="K23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -1452,7 +1515,7 @@
         <v>10</v>
       </c>
       <c r="M24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -1507,7 +1570,7 @@
         <v>88</v>
       </c>
       <c r="K26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -1533,7 +1596,7 @@
         <v>27</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K27" t="s">
         <v>10</v>
@@ -1562,10 +1625,10 @@
         <v>27</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1597,7 +1660,7 @@
         <v>101</v>
       </c>
       <c r="K29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -1629,7 +1692,7 @@
         <v>113</v>
       </c>
       <c r="K30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -1661,7 +1724,7 @@
         <v>113</v>
       </c>
       <c r="K31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -1693,7 +1756,7 @@
         <v>124</v>
       </c>
       <c r="K32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1719,7 +1782,7 @@
         <v>108</v>
       </c>
       <c r="K33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1871,224 +1934,286 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:G27"/>
+  <dimension ref="A3:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="44.85546875" customWidth="1"/>
-    <col min="5" max="5" width="73.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="1" max="2" width="5.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" customWidth="1"/>
+    <col min="6" max="6" width="73.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>133</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>134</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>135</v>
       </c>
-      <c r="E5" t="s">
-        <v>136</v>
-      </c>
       <c r="F5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" t="s">
         <v>137</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>138</v>
       </c>
-      <c r="D6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" t="s">
-        <v>139</v>
-      </c>
       <c r="F6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B7" s="7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" t="s">
         <v>146</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>11</v>
       </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>17</v>
       </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>23</v>
       </c>
+      <c r="B27" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2140,10 +2265,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2159,7 +2284,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -2577,7 +2702,7 @@
   <dimension ref="A2:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2611,72 +2736,118 @@
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>11</v>
-      </c>
+      <c r="A15" s="7"/>
       <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>12</v>
-      </c>
+      <c r="A16" s="7"/>
       <c r="C16" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">

--- a/hw/scanner/Index_TestCoverageRevB.xlsx
+++ b/hw/scanner/Index_TestCoverageRevB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Board Bring Up" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="178">
   <si>
     <t>Project:</t>
   </si>
@@ -544,7 +544,13 @@
     <t>Mods 1-2, plus serial debut port</t>
   </si>
   <si>
-    <t>Mods 1-4, plus serial debug port</t>
+    <t>Allow switch to control USB ISP mode and illuminate both red and green elements of D2</t>
+  </si>
+  <si>
+    <t>Cut track from SW1.3 at via. Add wire link from SW1.3 to U5.7</t>
+  </si>
+  <si>
+    <t>Mods 1-3,5,6, plus serial debug port</t>
   </si>
 </sst>
 </file>
@@ -574,12 +580,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -594,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -614,6 +626,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1936,8 +1955,8 @@
   </sheetPr>
   <dimension ref="A3:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2058,24 +2077,26 @@
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="10">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="11" t="s">
         <v>74</v>
       </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -2100,12 +2121,28 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="F10" s="1"/>
+      <c r="B10" s="7">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -2701,8 +2738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2743,7 +2780,7 @@
         <v>171</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2753,6 +2790,12 @@
       <c r="C6" s="7" t="s">
         <v>160</v>
       </c>
+      <c r="D6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -2803,6 +2846,12 @@
       <c r="C10" s="7" t="s">
         <v>164</v>
       </c>
+      <c r="D10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -2811,6 +2860,12 @@
       <c r="C11" s="7" t="s">
         <v>165</v>
       </c>
+      <c r="D11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -2833,6 +2888,12 @@
       <c r="C13" s="7" t="s">
         <v>167</v>
       </c>
+      <c r="D13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
@@ -2840,6 +2901,12 @@
       </c>
       <c r="C14" s="7" t="s">
         <v>168</v>
+      </c>
+      <c r="D14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
